--- a/_psychology_project/_data/Empresas encuestadas por listado.xlsx
+++ b/_psychology_project/_data/Empresas encuestadas por listado.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="10410"/>
   <workbookPr defaultThemeVersion="124226"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Documents\Area POT I\Area 2017\Convocatoria 2017\Valentina 20178\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/haachicanoy/Repositories/Statistical_consulting/_psychology_project/_data/"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7124CBBC-54EE-BB47-BA20-EF5E606F5F1D}" xr6:coauthVersionLast="32" xr6:coauthVersionMax="32" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="23040" windowHeight="9384"/>
+    <workbookView minimized="1" xWindow="140" yWindow="460" windowWidth="25300" windowHeight="14720" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Porcentajes empresas por listad" sheetId="6" r:id="rId1"/>
@@ -18,7 +19,7 @@
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="1" hidden="1">'Lista de empresas'!$B$1:$B$52</definedName>
   </definedNames>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="179017"/>
 </workbook>
 </file>
 
@@ -229,7 +230,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -370,7 +371,7 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema de Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
     <a:clrScheme name="Office">
       <a:dk1>
@@ -445,6 +446,23 @@
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri" panose="020F0502020204030204"/>
@@ -480,6 +498,23 @@
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
         <a:font script="Geor" typeface="Sylfaen"/>
+        <a:font script="Armn" typeface="Arial"/>
+        <a:font script="Bugi" typeface="Leelawadee UI"/>
+        <a:font script="Bopo" typeface="Microsoft JhengHei"/>
+        <a:font script="Java" typeface="Javanese Text"/>
+        <a:font script="Lisu" typeface="Segoe UI"/>
+        <a:font script="Mymr" typeface="Myanmar Text"/>
+        <a:font script="Nkoo" typeface="Ebrima"/>
+        <a:font script="Olck" typeface="Nirmala UI"/>
+        <a:font script="Osma" typeface="Ebrima"/>
+        <a:font script="Phag" typeface="Phagspa"/>
+        <a:font script="Syrn" typeface="Estrangelo Edessa"/>
+        <a:font script="Syrj" typeface="Estrangelo Edessa"/>
+        <a:font script="Syre" typeface="Estrangelo Edessa"/>
+        <a:font script="Sora" typeface="Nirmala UI"/>
+        <a:font script="Tale" typeface="Microsoft Tai Le"/>
+        <a:font script="Talu" typeface="Microsoft New Tai Lue"/>
+        <a:font script="Tfng" typeface="Ebrima"/>
       </a:minorFont>
     </a:fontScheme>
     <a:fmtScheme name="Office">
@@ -655,25 +690,25 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F21" sqref="F21"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="24.88671875" customWidth="1"/>
-    <col min="2" max="2" width="27.88671875" customWidth="1"/>
-    <col min="3" max="3" width="28.5546875" customWidth="1"/>
+    <col min="1" max="1" width="24.83203125" customWidth="1"/>
+    <col min="2" max="2" width="27.83203125" customWidth="1"/>
+    <col min="3" max="3" width="28.5" customWidth="1"/>
     <col min="4" max="4" width="30.33203125" customWidth="1"/>
-    <col min="5" max="5" width="26.109375" customWidth="1"/>
-    <col min="6" max="6" width="25.109375" customWidth="1"/>
-    <col min="7" max="7" width="37.44140625" customWidth="1"/>
+    <col min="5" max="5" width="26.1640625" customWidth="1"/>
+    <col min="6" max="6" width="25.1640625" customWidth="1"/>
+    <col min="7" max="7" width="37.5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:7" ht="45" x14ac:dyDescent="0.2">
       <c r="A1" s="5" t="s">
         <v>60</v>
       </c>
@@ -696,7 +731,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="2" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A2" s="6" t="s">
         <v>3</v>
       </c>
@@ -719,7 +754,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A3" s="6" t="s">
         <v>5</v>
       </c>
@@ -742,7 +777,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A4" s="6" t="s">
         <v>9</v>
       </c>
@@ -763,7 +798,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A5" s="6" t="s">
         <v>10</v>
       </c>
@@ -784,7 +819,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A6" s="6" t="s">
         <v>13</v>
       </c>
@@ -803,7 +838,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.2">
       <c r="A7" s="6" t="s">
         <v>37</v>
       </c>
@@ -822,7 +857,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="B8" s="7" t="s">
         <v>46</v>
       </c>
@@ -838,7 +873,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A9" s="6"/>
       <c r="B9" s="6" t="s">
         <v>50</v>
@@ -853,7 +888,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A10" s="6"/>
       <c r="B10" s="6"/>
       <c r="C10" s="6"/>
@@ -866,7 +901,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A11" s="6"/>
       <c r="B11" s="6"/>
       <c r="C11" s="6"/>
@@ -879,7 +914,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A12" s="6"/>
       <c r="B12" s="6"/>
       <c r="C12" s="6"/>
@@ -890,7 +925,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A13" s="6"/>
       <c r="B13" s="6"/>
       <c r="C13" s="6"/>
@@ -901,7 +936,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="14" spans="1:7" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:7" ht="30" x14ac:dyDescent="0.2">
       <c r="A14" s="6"/>
       <c r="B14" s="6"/>
       <c r="C14" s="6"/>
@@ -912,7 +947,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A15" s="6"/>
       <c r="B15" s="6"/>
       <c r="C15" s="6"/>
@@ -923,7 +958,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A16" s="8">
         <v>0.11700000000000001</v>
       </c>
@@ -946,7 +981,7 @@
         <v>0.27400000000000002</v>
       </c>
     </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:7" x14ac:dyDescent="0.2">
       <c r="A17" s="11">
         <f>A16+B16+C16+D16+E16+F16</f>
         <v>0.72300000000000009</v>
@@ -970,20 +1005,20 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:B52"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A10" sqref="A10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="55.33203125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="72.109375" style="1" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="72.1640625" style="1" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>52</v>
       </c>
@@ -991,7 +1026,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
@@ -999,7 +1034,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" s="3" t="s">
         <v>1</v>
       </c>
@@ -1007,7 +1042,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" s="3" t="s">
         <v>2</v>
       </c>
@@ -1015,7 +1050,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" s="3" t="s">
         <v>3</v>
       </c>
@@ -1023,7 +1058,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" s="3" t="s">
         <v>4</v>
       </c>
@@ -1031,7 +1066,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" s="3" t="s">
         <v>5</v>
       </c>
@@ -1039,7 +1074,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" s="3" t="s">
         <v>6</v>
       </c>
@@ -1047,7 +1082,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" s="3" t="s">
         <v>7</v>
       </c>
@@ -1055,7 +1090,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" s="3" t="s">
         <v>8</v>
       </c>
@@ -1063,7 +1098,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A11" s="3" t="s">
         <v>9</v>
       </c>
@@ -1071,7 +1106,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" s="3" t="s">
         <v>10</v>
       </c>
@@ -1079,7 +1114,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" s="3" t="s">
         <v>11</v>
       </c>
@@ -1087,7 +1122,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" s="3" t="s">
         <v>12</v>
       </c>
@@ -1095,7 +1130,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" s="3" t="s">
         <v>13</v>
       </c>
@@ -1103,7 +1138,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" s="3" t="s">
         <v>14</v>
       </c>
@@ -1111,7 +1146,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" s="3" t="s">
         <v>15</v>
       </c>
@@ -1119,7 +1154,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" s="3" t="s">
         <v>16</v>
       </c>
@@ -1127,7 +1162,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" s="3" t="s">
         <v>17</v>
       </c>
@@ -1135,7 +1170,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" s="3" t="s">
         <v>18</v>
       </c>
@@ -1143,7 +1178,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" s="3" t="s">
         <v>19</v>
       </c>
@@ -1151,7 +1186,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" s="3" t="s">
         <v>20</v>
       </c>
@@ -1159,7 +1194,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A23" s="3" t="s">
         <v>21</v>
       </c>
@@ -1167,7 +1202,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" s="3" t="s">
         <v>22</v>
       </c>
@@ -1175,7 +1210,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" s="3" t="s">
         <v>23</v>
       </c>
@@ -1183,7 +1218,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" s="3" t="s">
         <v>24</v>
       </c>
@@ -1191,7 +1226,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A27" s="3" t="s">
         <v>25</v>
       </c>
@@ -1199,7 +1234,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="3" t="s">
         <v>26</v>
       </c>
@@ -1207,7 +1242,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>27</v>
       </c>
@@ -1215,7 +1250,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" s="3" t="s">
         <v>28</v>
       </c>
@@ -1223,7 +1258,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" s="3" t="s">
         <v>29</v>
       </c>
@@ -1231,7 +1266,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" s="3" t="s">
         <v>30</v>
       </c>
@@ -1239,7 +1274,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" s="3" t="s">
         <v>31</v>
       </c>
@@ -1247,7 +1282,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>32</v>
       </c>
@@ -1255,7 +1290,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" s="3" t="s">
         <v>33</v>
       </c>
@@ -1263,7 +1298,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" s="3" t="s">
         <v>34</v>
       </c>
@@ -1271,7 +1306,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" s="3" t="s">
         <v>35</v>
       </c>
@@ -1279,7 +1314,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A38" s="3" t="s">
         <v>36</v>
       </c>
@@ -1287,7 +1322,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A39" s="3" t="s">
         <v>37</v>
       </c>
@@ -1295,7 +1330,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" s="3" t="s">
         <v>38</v>
       </c>
@@ -1303,7 +1338,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" s="3" t="s">
         <v>39</v>
       </c>
@@ -1311,7 +1346,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" s="3" t="s">
         <v>40</v>
       </c>
@@ -1319,7 +1354,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A43" s="3" t="s">
         <v>41</v>
       </c>
@@ -1327,7 +1362,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>42</v>
       </c>
@@ -1335,7 +1370,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" s="3" t="s">
         <v>43</v>
       </c>
@@ -1343,7 +1378,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" s="3" t="s">
         <v>44</v>
       </c>
@@ -1351,7 +1386,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A47" s="3" t="s">
         <v>45</v>
       </c>
@@ -1359,7 +1394,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>46</v>
       </c>
@@ -1367,7 +1402,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A49" s="3" t="s">
         <v>47</v>
       </c>
@@ -1375,7 +1410,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A50" s="3" t="s">
         <v>48</v>
       </c>
@@ -1383,7 +1418,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A51" s="3" t="s">
         <v>49</v>
       </c>
@@ -1391,7 +1426,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A52" s="3" t="s">
         <v>50</v>
       </c>
@@ -1400,7 +1435,7 @@
       </c>
     </row>
   </sheetData>
-  <autoFilter ref="B1:B52"/>
+  <autoFilter ref="B1:B52" xr:uid="{00000000-0009-0000-0000-000001000000}"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>